--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H2">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I2">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J2">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>1709.658174187242</v>
+        <v>1553.886592852754</v>
       </c>
       <c r="R2">
-        <v>15386.92356768518</v>
+        <v>13984.97933567479</v>
       </c>
       <c r="S2">
-        <v>0.005698068893862527</v>
+        <v>0.005968738670652557</v>
       </c>
       <c r="T2">
-        <v>0.006352260504097363</v>
+        <v>0.006398780205393917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H3">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I3">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J3">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>1829.580500797477</v>
+        <v>1885.052664063046</v>
       </c>
       <c r="R3">
-        <v>16466.22450717729</v>
+        <v>16965.47397656742</v>
       </c>
       <c r="S3">
-        <v>0.006097754450457634</v>
+        <v>0.007240803018676864</v>
       </c>
       <c r="T3">
-        <v>0.006797833701352307</v>
+        <v>0.007762495492536043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H4">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I4">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J4">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>918.6921403508325</v>
+        <v>1064.205644607274</v>
       </c>
       <c r="R4">
-        <v>8268.229263157491</v>
+        <v>9577.850801465464</v>
       </c>
       <c r="S4">
-        <v>0.003061881718231561</v>
+        <v>0.004087792129561207</v>
       </c>
       <c r="T4">
-        <v>0.003413414381123024</v>
+        <v>0.004382313384067389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H5">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I5">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J5">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>2093.560860316344</v>
+        <v>1160.596460449442</v>
       </c>
       <c r="R5">
-        <v>12561.36516189806</v>
+        <v>6963.578762696651</v>
       </c>
       <c r="S5">
-        <v>0.006977566741519955</v>
+        <v>0.004458045398145406</v>
       </c>
       <c r="T5">
-        <v>0.005185771115614489</v>
+        <v>0.003186162015397416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H6">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I6">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J6">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>1049.611811009848</v>
+        <v>1144.88497266818</v>
       </c>
       <c r="R6">
-        <v>9446.506299088633</v>
+        <v>10303.96475401362</v>
       </c>
       <c r="S6">
-        <v>0.0034982199958124</v>
+        <v>0.004397694941989312</v>
       </c>
       <c r="T6">
-        <v>0.003899848374591954</v>
+        <v>0.004714544378114925</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I7">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J7">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>63207.61555104251</v>
+        <v>55758.03689301945</v>
       </c>
       <c r="R7">
-        <v>568868.5399593826</v>
+        <v>501822.332037175</v>
       </c>
       <c r="S7">
-        <v>0.2106627824581569</v>
+        <v>0.2141759588722918</v>
       </c>
       <c r="T7">
-        <v>0.2348488404788477</v>
+        <v>0.2296071183082054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I8">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J8">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>67641.25288908511</v>
+        <v>67641.2528890851</v>
       </c>
       <c r="R8">
-        <v>608771.276001766</v>
+        <v>608771.2760017659</v>
       </c>
       <c r="S8">
-        <v>0.2254395205125799</v>
+        <v>0.2598213818868626</v>
       </c>
       <c r="T8">
-        <v>0.2513220862873721</v>
+        <v>0.2785412475051427</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I9">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J9">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>33964.88286008695</v>
+        <v>38186.83928846716</v>
       </c>
       <c r="R9">
-        <v>305683.9457407826</v>
+        <v>343681.5535962044</v>
       </c>
       <c r="S9">
-        <v>0.1132005481743452</v>
+        <v>0.1466820457937156</v>
       </c>
       <c r="T9">
-        <v>0.1261970300121494</v>
+        <v>0.1572503376176287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I10">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J10">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>77400.8465490439</v>
+        <v>41645.62623636712</v>
       </c>
       <c r="R10">
-        <v>464405.0792942634</v>
+        <v>249873.7574182027</v>
       </c>
       <c r="S10">
-        <v>0.2579669800306125</v>
+        <v>0.1599678257884948</v>
       </c>
       <c r="T10">
-        <v>0.1917226682855979</v>
+        <v>0.114328896342116</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I11">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J11">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>38805.10199630001</v>
+        <v>41081.85168590683</v>
       </c>
       <c r="R11">
-        <v>349245.9179667001</v>
+        <v>369736.6651731615</v>
       </c>
       <c r="S11">
-        <v>0.1293323706146088</v>
+        <v>0.1578022733110233</v>
       </c>
       <c r="T11">
-        <v>0.1441809365698207</v>
+        <v>0.1691717661879713</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H12">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I12">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J12">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>62.66249772340711</v>
+        <v>96.680873729444</v>
       </c>
       <c r="R12">
-        <v>563.962479510664</v>
+        <v>870.127863564996</v>
       </c>
       <c r="S12">
-        <v>0.0002088459754589357</v>
+        <v>0.0003713674295123361</v>
       </c>
       <c r="T12">
-        <v>0.0002328234470412304</v>
+        <v>0.0003981240741156051</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H13">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I13">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J13">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>67.05789829625667</v>
+        <v>117.2856110773467</v>
       </c>
       <c r="R13">
-        <v>603.52108466631</v>
+        <v>1055.57049969612</v>
       </c>
       <c r="S13">
-        <v>0.0002234952753355768</v>
+        <v>0.0004505136768464359</v>
       </c>
       <c r="T13">
-        <v>0.0002491546235770736</v>
+        <v>0.0004829727278626254</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H14">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I14">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J14">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>33.67196146130977</v>
+        <v>66.21353966350046</v>
       </c>
       <c r="R14">
-        <v>303.047653151788</v>
+        <v>595.921856971504</v>
       </c>
       <c r="S14">
-        <v>0.0001122242791540702</v>
+        <v>0.0002543372962532357</v>
       </c>
       <c r="T14">
-        <v>0.0001251086761760723</v>
+        <v>0.0002726620390938787</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H15">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I15">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J15">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>76.7333228501965</v>
+        <v>72.21085525781668</v>
       </c>
       <c r="R15">
-        <v>460.399937101179</v>
+        <v>433.2651315469001</v>
       </c>
       <c r="S15">
-        <v>0.0002557422101428386</v>
+        <v>0.0002773739899685634</v>
       </c>
       <c r="T15">
-        <v>0.0001900692054309532</v>
+        <v>0.0001982390020668505</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H16">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I16">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J16">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>38.47043737215656</v>
+        <v>71.23330620548001</v>
       </c>
       <c r="R16">
-        <v>346.233936349409</v>
+        <v>641.09975584932</v>
       </c>
       <c r="S16">
-        <v>0.0001282169768397014</v>
+        <v>0.0002736190603244188</v>
       </c>
       <c r="T16">
-        <v>0.0001429374851558703</v>
+        <v>0.0002933330346042707</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H17">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I17">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J17">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>2491.436332286373</v>
+        <v>1962.948875578741</v>
       </c>
       <c r="R17">
-        <v>14948.61799371824</v>
+        <v>11777.69325347245</v>
       </c>
       <c r="S17">
-        <v>0.008303634071640533</v>
+        <v>0.007540015414298014</v>
       </c>
       <c r="T17">
-        <v>0.006171312624946056</v>
+        <v>0.005388843890764652</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H18">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I18">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J18">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>2666.1957351191</v>
+        <v>2381.294763948004</v>
       </c>
       <c r="R18">
-        <v>15997.1744107146</v>
+        <v>14287.76858368803</v>
       </c>
       <c r="S18">
-        <v>0.008886084489054844</v>
+        <v>0.009146952042172462</v>
       </c>
       <c r="T18">
-        <v>0.006604193407430235</v>
+        <v>0.006537320406282941</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H19">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I19">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J19">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>1338.783981040013</v>
+        <v>1344.358901785279</v>
       </c>
       <c r="R19">
-        <v>8032.70388624008</v>
+        <v>8066.153410711675</v>
       </c>
       <c r="S19">
-        <v>0.00446199332307586</v>
+        <v>0.005163907714520171</v>
       </c>
       <c r="T19">
-        <v>0.00331618126347453</v>
+        <v>0.003690641333052931</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H20">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I20">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J20">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>3050.886820533285</v>
+        <v>1466.124701454181</v>
       </c>
       <c r="R20">
-        <v>12203.54728213314</v>
+        <v>5864.498805816725</v>
       </c>
       <c r="S20">
-        <v>0.0101682099692473</v>
+        <v>0.005631630546153855</v>
       </c>
       <c r="T20">
-        <v>0.005038051373244149</v>
+        <v>0.002683281681903585</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H21">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I21">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J21">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>1529.569501219157</v>
+        <v>1446.277147961055</v>
       </c>
       <c r="R21">
-        <v>9177.417007314942</v>
+        <v>8677.66288776633</v>
       </c>
       <c r="S21">
-        <v>0.005097856710474316</v>
+        <v>0.005555392768830104</v>
       </c>
       <c r="T21">
-        <v>0.003788758898343473</v>
+        <v>0.003970435435229866</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H22">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I22">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J22">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>14.71217766196533</v>
+        <v>43.51144915662699</v>
       </c>
       <c r="R22">
-        <v>132.409598957688</v>
+        <v>391.603042409643</v>
       </c>
       <c r="S22">
-        <v>4.903377947844832E-05</v>
+        <v>0.0001671347641403468</v>
       </c>
       <c r="T22">
-        <v>5.4663316037309E-05</v>
+        <v>0.0001791766534649621</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H23">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I23">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J23">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>15.74414919953</v>
+        <v>52.78465849902332</v>
       </c>
       <c r="R23">
-        <v>141.69734279577</v>
+        <v>475.0619264912099</v>
       </c>
       <c r="S23">
-        <v>5.247320673141023E-05</v>
+        <v>0.000202754714436335</v>
       </c>
       <c r="T23">
-        <v>5.849762171220862E-05</v>
+        <v>0.00021736298485718</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H24">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I24">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J24">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>7.905651661577333</v>
+        <v>29.79955552130355</v>
       </c>
       <c r="R24">
-        <v>71.150864954196</v>
+        <v>268.195999691732</v>
       </c>
       <c r="S24">
-        <v>2.634851135664085E-05</v>
+        <v>0.0001144650840198844</v>
       </c>
       <c r="T24">
-        <v>2.937356693121594E-05</v>
+        <v>0.0001227121766004728</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H25">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I25">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J25">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>18.0157880611155</v>
+        <v>32.49866117159583</v>
       </c>
       <c r="R25">
-        <v>108.094728366693</v>
+        <v>194.991967029575</v>
       </c>
       <c r="S25">
-        <v>6.004428434839824E-05</v>
+        <v>0.0001248328009080904</v>
       </c>
       <c r="T25">
-        <v>4.46252865743049E-05</v>
+        <v>8.921791794549441E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H26">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I26">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J26">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>9.032259005233669</v>
+        <v>32.05871297658999</v>
       </c>
       <c r="R26">
-        <v>81.29033104710302</v>
+        <v>288.52841678931</v>
       </c>
       <c r="S26">
-        <v>3.010334747382962E-05</v>
+        <v>0.0001231428862021567</v>
       </c>
       <c r="T26">
-        <v>3.355949335837224E-05</v>
+        <v>0.0001320152055809956</v>
       </c>
     </row>
   </sheetData>
